--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H2">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>196.4377237306946</v>
+        <v>451.3307449639533</v>
       </c>
       <c r="R2">
-        <v>196.4377237306946</v>
+        <v>4061.97670467558</v>
       </c>
       <c r="S2">
-        <v>0.003697766836035667</v>
+        <v>0.007910856619711993</v>
       </c>
       <c r="T2">
-        <v>0.003697766836035667</v>
+        <v>0.007910856619711993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H3">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>5032.455741832006</v>
+        <v>6742.259464659243</v>
       </c>
       <c r="R3">
-        <v>5032.455741832006</v>
+        <v>60680.33518193319</v>
       </c>
       <c r="S3">
-        <v>0.0947315393018674</v>
+        <v>0.1181772979416133</v>
       </c>
       <c r="T3">
-        <v>0.0947315393018674</v>
+        <v>0.1181772979416133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H4">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>631.792560870388</v>
+        <v>860.9195137899657</v>
       </c>
       <c r="R4">
-        <v>631.792560870388</v>
+        <v>7748.275624109692</v>
       </c>
       <c r="S4">
-        <v>0.01189293754005925</v>
+        <v>0.01509006623346373</v>
       </c>
       <c r="T4">
-        <v>0.01189293754005925</v>
+        <v>0.01509006623346373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H5">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>1427.683829216737</v>
+        <v>2462.922766664806</v>
       </c>
       <c r="R5">
-        <v>1427.683829216737</v>
+        <v>22166.30489998326</v>
       </c>
       <c r="S5">
-        <v>0.02687488846724578</v>
+        <v>0.0431697354765091</v>
       </c>
       <c r="T5">
-        <v>0.02687488846724578</v>
+        <v>0.0431697354765091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H6">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>36575.23385738465</v>
+        <v>36792.67260110271</v>
       </c>
       <c r="R6">
-        <v>36575.23385738465</v>
+        <v>331134.0534099244</v>
       </c>
       <c r="S6">
-        <v>0.6884965077456389</v>
+        <v>0.6448963666912959</v>
       </c>
       <c r="T6">
-        <v>0.6884965077456389</v>
+        <v>0.6448963666912959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H7">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>4591.786167358958</v>
+        <v>4698.058562238324</v>
       </c>
       <c r="R7">
-        <v>4591.786167358958</v>
+        <v>42282.52706014492</v>
       </c>
       <c r="S7">
-        <v>0.08643632335663308</v>
+        <v>0.08234685558557724</v>
       </c>
       <c r="T7">
-        <v>0.08643632335663308</v>
+        <v>0.08234685558557724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H8">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>156.4597440039695</v>
+        <v>282.6329657832867</v>
       </c>
       <c r="R8">
-        <v>156.4597440039695</v>
+        <v>2543.69669204958</v>
       </c>
       <c r="S8">
-        <v>0.002945216639476393</v>
+        <v>0.004953947616606796</v>
       </c>
       <c r="T8">
-        <v>0.002945216639476393</v>
+        <v>0.004953947616606796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H9">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>4008.276628972715</v>
+        <v>4222.147083574532</v>
       </c>
       <c r="R9">
-        <v>4008.276628972715</v>
+        <v>37999.32375217079</v>
       </c>
       <c r="S9">
-        <v>0.07545227111566334</v>
+        <v>0.07400515160597117</v>
       </c>
       <c r="T9">
-        <v>0.07545227111566334</v>
+        <v>0.07400515160597117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H10">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>503.2134381322363</v>
+        <v>539.1262133108103</v>
       </c>
       <c r="R10">
-        <v>503.2134381322363</v>
+        <v>4852.135919797292</v>
       </c>
       <c r="S10">
-        <v>0.009472548997380349</v>
+        <v>0.009449722229250557</v>
       </c>
       <c r="T10">
-        <v>0.009472548997380349</v>
+        <v>0.009449722229250557</v>
       </c>
     </row>
   </sheetData>
